--- a/GD/closest_alpha_pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
+++ b/GD/closest_alpha_pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDDE86-D3D6-429D-A8E4-290D183FA148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62783E2A-6E68-4381-858B-FDD0BEA50D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Position</t>
   </si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>Prob_Tum_Down</t>
+  </si>
+  <si>
+    <t>Alpha_Curve_Fit</t>
   </si>
 </sst>
 </file>
@@ -112,6 +118,3308 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2183903482652906E-2"/>
+          <c:y val="2.0686412787964268E-2"/>
+          <c:w val="0.94467050442224132"/>
+          <c:h val="0.93568731976203967"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curve_Fit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>8008.8288756840811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8742.6846047128929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9164.6600056323514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9147.6925583873744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8564.71974292288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7486.8180880061454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6575.1644328230177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5858.0408172455891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5164.4924487784283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4572.0806517224082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4015.5528658250028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3625.9566037551931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3233.9794614479388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2842.5473288642497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2519.1055927008565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2255.6667674224705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1991.4789100179607</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1788.0575585603694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1598.219919308011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1428.3570034138461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1281.6432673763609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150.2309365013928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1036.8449867654324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>935.01745211854211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>844.51410355912958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>768.13274984721977</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>697.41695473571042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>636.00248197146254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>582.64965391211683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536.65898507927363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495.18418242735919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>459.88838470915192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>428.18839526949353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>400.67418496284398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>376.52244851828567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.61324336841074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>337.2023263962804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.34085093740805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.11025869671431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>296.69708227210117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>286.59730514349855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>278.30292352830912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>271.42585498869613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265.4902799957876</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>261.12752452922115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>257.4896609489133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.7759734406489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.03009163603519</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252.17491029993707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>251.89787083957856</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252.49025065092502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253.95045585685398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256.2233399593249</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.49151839401719</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264.03048111670125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>269.29350903128625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>275.46707946798216</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>282.84472378577107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291.65039459072074</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>302.37043231454214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314.60220933435261</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>328.74296025338435</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344.79657116908072</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>362.64223794324749</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>383.89190299528838</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>407.6189205404541</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>434.09310445041314</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>463.43798929280342</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>495.29929706331194</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>530.96386245608153</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>569.23663641620044</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>610.16695680634245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>652.34516873224379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>696.1647890733085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>738.48163659214026</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>781.50646162823728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>820.98266125330485</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>854.20517956651713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>879.47172618643663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>896.42702889444911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>905.10399704058295</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>899.49421131434565</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>882.09335832163345</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>857.55788564424563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>823.35879510341863</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>783.47096631355862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>739.24858856370031</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>692.91711079876677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>644.83123564958692</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>596.5775855938399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>550.28800337928078</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>505.79422672258551</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>461.73161586167834</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>416.20710506106155</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>376.0340442081943</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>342.76192974200893</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>314.11301903339489</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>286.90596800614372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>257.78791973217602</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>210.995388944257</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>127.4436019763703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2282-4C61-9EC5-467643A96498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="622491584"/>
+        <c:axId val="44233600"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alpha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="2">
+                  <c:v>9164.6600056323514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9147.6925583873744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8564.71974292288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7486.8180880061454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6575.1644328230177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5858.0408172455891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5164.4924487784283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4572.0806517224082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4015.5528658250028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3625.9566037551931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3233.9794614479388</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2842.5473288642497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2519.1055927008565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2255.6667674224705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1991.4789100179607</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1788.0575585603694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1598.219919308011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1428.3570034138461</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1281.6432673763609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1150.2309365013928</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1036.8449867654324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>935.01745211854211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>844.51410355912958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>768.13274984721977</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>697.41695473571042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>636.00248197146254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>582.64965391211683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536.65898507927363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>495.18418242735919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>459.88838470915192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>428.18839526949353</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>400.67418496284398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>376.52244851828567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.61324336841074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>337.2023263962804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.34085093740805</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>308.11025869671431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>296.69708227210117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>286.59730514349855</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>278.30292352830912</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>271.42585498869613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265.4902799957876</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>261.12752452922115</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>257.4896609489133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.7759734406489</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.03009163603519</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252.17491029993707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>251.89787083957856</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252.49025065092502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>253.95045585685398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256.2233399593249</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.49151839401719</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>264.03048111670125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>269.29350903128625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>275.46707946798216</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>282.84472378577107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291.65039459072074</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>302.37043231454214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>314.60220933435261</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>328.74296025338435</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>344.79657116908072</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>362.64223794324749</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>383.89190299528838</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>407.6189205404541</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>434.09310445041314</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>463.43798929280342</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>495.29929706331194</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>530.96386245608153</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>569.23663641620044</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>610.16695680634245</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>652.34516873224379</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>696.1647890733085</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>738.48163659214026</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>781.50646162823728</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>820.98266125330485</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>854.20517956651713</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>879.47172618643663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>896.42702889444911</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>905.10399704058295</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>899.49421131434565</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>882.09335832163345</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>857.55788564424563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>823.35879510341863</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>783.47096631355862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>739.24858856370031</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>692.91711079876677</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>644.83123564958692</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>596.5775855938399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>550.28800337928078</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>505.79422672258551</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>461.73161586167834</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>416.20710506106155</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>376.0340442081943</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>342.76192974200893</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>314.11301903339489</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>286.90596800614372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>257.78791973217602</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>210.995388944257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2282-4C61-9EC5-467643A96498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622491584"/>
+        <c:axId val="44233600"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="622491584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44233600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44233600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622491584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76929170275915704"/>
+          <c:y val="0.12975992951515758"/>
+          <c:w val="8.5774902517760113E-2"/>
+          <c:h val="6.3470119831636002E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA81FF7-38B7-41EE-BC84-FD7D0FC7F432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Y_data</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Curve_Fit</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>8008.8288756840811</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>8742.6846047128929</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>9164.6600056323514</v>
+          </cell>
+          <cell r="C4">
+            <v>9164.6600056323514</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>9147.6925583873744</v>
+          </cell>
+          <cell r="C5">
+            <v>9147.6925583873744</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>8564.71974292288</v>
+          </cell>
+          <cell r="C6">
+            <v>8564.71974292288</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>7486.8180880061454</v>
+          </cell>
+          <cell r="C7">
+            <v>7486.8180880061454</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>6575.1644328230177</v>
+          </cell>
+          <cell r="C8">
+            <v>6575.1644328230177</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>5858.0408172455891</v>
+          </cell>
+          <cell r="C9">
+            <v>5858.0408172455891</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>5164.4924487784283</v>
+          </cell>
+          <cell r="C10">
+            <v>5164.4924487784283</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>4572.0806517224082</v>
+          </cell>
+          <cell r="C11">
+            <v>4572.0806517224082</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>4015.5528658250028</v>
+          </cell>
+          <cell r="C12">
+            <v>4015.5528658250028</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>3625.9566037551931</v>
+          </cell>
+          <cell r="C13">
+            <v>3625.9566037551931</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>3233.9794614479388</v>
+          </cell>
+          <cell r="C14">
+            <v>3233.9794614479388</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>2842.5473288642497</v>
+          </cell>
+          <cell r="C15">
+            <v>2842.5473288642497</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>2519.1055927008565</v>
+          </cell>
+          <cell r="C16">
+            <v>2519.1055927008565</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>2255.6667674224705</v>
+          </cell>
+          <cell r="C17">
+            <v>2255.6667674224705</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>1991.4789100179607</v>
+          </cell>
+          <cell r="C18">
+            <v>1991.4789100179607</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>1788.0575585603694</v>
+          </cell>
+          <cell r="C19">
+            <v>1788.0575585603694</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>1598.219919308011</v>
+          </cell>
+          <cell r="C20">
+            <v>1598.219919308011</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>1428.3570034138461</v>
+          </cell>
+          <cell r="C21">
+            <v>1428.3570034138461</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>1281.6432673763609</v>
+          </cell>
+          <cell r="C22">
+            <v>1281.6432673763609</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>1150.2309365013928</v>
+          </cell>
+          <cell r="C23">
+            <v>1150.2309365013928</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>1036.8449867654324</v>
+          </cell>
+          <cell r="C24">
+            <v>1036.8449867654324</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>935.01745211854211</v>
+          </cell>
+          <cell r="C25">
+            <v>935.01745211854211</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>844.51410355912958</v>
+          </cell>
+          <cell r="C26">
+            <v>844.51410355912958</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>768.13274984721977</v>
+          </cell>
+          <cell r="C27">
+            <v>768.13274984721977</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>697.41695473571042</v>
+          </cell>
+          <cell r="C28">
+            <v>697.41695473571042</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>636.00248197146254</v>
+          </cell>
+          <cell r="C29">
+            <v>636.00248197146254</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>582.64965391211683</v>
+          </cell>
+          <cell r="C30">
+            <v>582.64965391211683</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>536.65898507927363</v>
+          </cell>
+          <cell r="C31">
+            <v>536.65898507927363</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="B32">
+            <v>495.18418242735919</v>
+          </cell>
+          <cell r="C32">
+            <v>495.18418242735919</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="B33">
+            <v>459.88838470915192</v>
+          </cell>
+          <cell r="C33">
+            <v>459.88838470915192</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="B34">
+            <v>428.18839526949353</v>
+          </cell>
+          <cell r="C34">
+            <v>428.18839526949353</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="B35">
+            <v>400.67418496284398</v>
+          </cell>
+          <cell r="C35">
+            <v>400.67418496284398</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>376.52244851828567</v>
+          </cell>
+          <cell r="C36">
+            <v>376.52244851828567</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>355.61324336841074</v>
+          </cell>
+          <cell r="C37">
+            <v>355.61324336841074</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>337.2023263962804</v>
+          </cell>
+          <cell r="C38">
+            <v>337.2023263962804</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>321.34085093740805</v>
+          </cell>
+          <cell r="C39">
+            <v>321.34085093740805</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>308.11025869671431</v>
+          </cell>
+          <cell r="C40">
+            <v>308.11025869671431</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>296.69708227210117</v>
+          </cell>
+          <cell r="C41">
+            <v>296.69708227210117</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>286.59730514349855</v>
+          </cell>
+          <cell r="C42">
+            <v>286.59730514349855</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>278.30292352830912</v>
+          </cell>
+          <cell r="C43">
+            <v>278.30292352830912</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>271.42585498869613</v>
+          </cell>
+          <cell r="C44">
+            <v>271.42585498869613</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="B45">
+            <v>265.4902799957876</v>
+          </cell>
+          <cell r="C45">
+            <v>265.4902799957876</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="B46">
+            <v>261.12752452922115</v>
+          </cell>
+          <cell r="C46">
+            <v>261.12752452922115</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="B47">
+            <v>257.4896609489133</v>
+          </cell>
+          <cell r="C47">
+            <v>257.4896609489133</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="B48">
+            <v>254.7759734406489</v>
+          </cell>
+          <cell r="C48">
+            <v>254.7759734406489</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="B49">
+            <v>253.03009163603519</v>
+          </cell>
+          <cell r="C49">
+            <v>253.03009163603519</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="B50">
+            <v>252.17491029993707</v>
+          </cell>
+          <cell r="C50">
+            <v>252.17491029993707</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="B51">
+            <v>251.89787083957856</v>
+          </cell>
+          <cell r="C51">
+            <v>251.89787083957856</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>252.49025065092502</v>
+          </cell>
+          <cell r="C52">
+            <v>252.49025065092502</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>253.95045585685398</v>
+          </cell>
+          <cell r="C53">
+            <v>253.95045585685398</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>256.2233399593249</v>
+          </cell>
+          <cell r="C54">
+            <v>256.2233399593249</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>259.49151839401719</v>
+          </cell>
+          <cell r="C55">
+            <v>259.49151839401719</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>264.03048111670125</v>
+          </cell>
+          <cell r="C56">
+            <v>264.03048111670125</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>269.29350903128625</v>
+          </cell>
+          <cell r="C57">
+            <v>269.29350903128625</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>275.46707946798216</v>
+          </cell>
+          <cell r="C58">
+            <v>275.46707946798216</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>282.84472378577107</v>
+          </cell>
+          <cell r="C59">
+            <v>282.84472378577107</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>291.65039459072074</v>
+          </cell>
+          <cell r="C60">
+            <v>291.65039459072074</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>302.37043231454214</v>
+          </cell>
+          <cell r="C61">
+            <v>302.37043231454214</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>314.60220933435261</v>
+          </cell>
+          <cell r="C62">
+            <v>314.60220933435261</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>328.74296025338435</v>
+          </cell>
+          <cell r="C63">
+            <v>328.74296025338435</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>344.79657116908072</v>
+          </cell>
+          <cell r="C64">
+            <v>344.79657116908072</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>362.64223794324749</v>
+          </cell>
+          <cell r="C65">
+            <v>362.64223794324749</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>383.89190299528838</v>
+          </cell>
+          <cell r="C66">
+            <v>383.89190299528838</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>407.6189205404541</v>
+          </cell>
+          <cell r="C67">
+            <v>407.6189205404541</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>434.09310445041314</v>
+          </cell>
+          <cell r="C68">
+            <v>434.09310445041314</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>463.43798929280342</v>
+          </cell>
+          <cell r="C69">
+            <v>463.43798929280342</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>495.29929706331194</v>
+          </cell>
+          <cell r="C70">
+            <v>495.29929706331194</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>530.96386245608153</v>
+          </cell>
+          <cell r="C71">
+            <v>530.96386245608153</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>569.23663641620044</v>
+          </cell>
+          <cell r="C72">
+            <v>569.23663641620044</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>610.16695680634245</v>
+          </cell>
+          <cell r="C73">
+            <v>610.16695680634245</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>652.34516873224379</v>
+          </cell>
+          <cell r="C74">
+            <v>652.34516873224379</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>696.1647890733085</v>
+          </cell>
+          <cell r="C75">
+            <v>696.1647890733085</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>738.48163659214026</v>
+          </cell>
+          <cell r="C76">
+            <v>738.48163659214026</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>781.50646162823728</v>
+          </cell>
+          <cell r="C77">
+            <v>781.50646162823728</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>820.98266125330485</v>
+          </cell>
+          <cell r="C78">
+            <v>820.98266125330485</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>854.20517956651713</v>
+          </cell>
+          <cell r="C79">
+            <v>854.20517956651713</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>879.47172618643663</v>
+          </cell>
+          <cell r="C80">
+            <v>879.47172618643663</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>896.42702889444911</v>
+          </cell>
+          <cell r="C81">
+            <v>896.42702889444911</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>905.10399704058295</v>
+          </cell>
+          <cell r="C82">
+            <v>905.10399704058295</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+          <cell r="B83">
+            <v>899.49421131434565</v>
+          </cell>
+          <cell r="C83">
+            <v>899.49421131434565</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>882.09335832163345</v>
+          </cell>
+          <cell r="C84">
+            <v>882.09335832163345</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>857.55788564424563</v>
+          </cell>
+          <cell r="C85">
+            <v>857.55788564424563</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>823.35879510341863</v>
+          </cell>
+          <cell r="C86">
+            <v>823.35879510341863</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>783.47096631355862</v>
+          </cell>
+          <cell r="C87">
+            <v>783.47096631355862</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>739.24858856370031</v>
+          </cell>
+          <cell r="C88">
+            <v>739.24858856370031</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>692.91711079876677</v>
+          </cell>
+          <cell r="C89">
+            <v>692.91711079876677</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>644.83123564958692</v>
+          </cell>
+          <cell r="C90">
+            <v>644.83123564958692</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>596.5775855938399</v>
+          </cell>
+          <cell r="C91">
+            <v>596.5775855938399</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>91</v>
+          </cell>
+          <cell r="B92">
+            <v>550.28800337928078</v>
+          </cell>
+          <cell r="C92">
+            <v>550.28800337928078</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>92</v>
+          </cell>
+          <cell r="B93">
+            <v>505.79422672258551</v>
+          </cell>
+          <cell r="C93">
+            <v>505.79422672258551</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>93</v>
+          </cell>
+          <cell r="B94">
+            <v>461.73161586167834</v>
+          </cell>
+          <cell r="C94">
+            <v>461.73161586167834</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>94</v>
+          </cell>
+          <cell r="B95">
+            <v>416.20710506106155</v>
+          </cell>
+          <cell r="C95">
+            <v>416.20710506106155</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>95</v>
+          </cell>
+          <cell r="B96">
+            <v>376.0340442081943</v>
+          </cell>
+          <cell r="C96">
+            <v>376.0340442081943</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>96</v>
+          </cell>
+          <cell r="B97">
+            <v>342.76192974200893</v>
+          </cell>
+          <cell r="C97">
+            <v>342.76192974200893</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>97</v>
+          </cell>
+          <cell r="B98">
+            <v>314.11301903339489</v>
+          </cell>
+          <cell r="C98">
+            <v>314.11301903339489</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>98</v>
+          </cell>
+          <cell r="B99">
+            <v>286.90596800614372</v>
+          </cell>
+          <cell r="C99">
+            <v>286.90596800614372</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>99</v>
+          </cell>
+          <cell r="B100">
+            <v>257.78791973217602</v>
+          </cell>
+          <cell r="C100">
+            <v>257.78791973217602</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>100</v>
+          </cell>
+          <cell r="B101">
+            <v>210.995388944257</v>
+          </cell>
+          <cell r="C101">
+            <v>210.995388944257</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>101</v>
+          </cell>
+          <cell r="C102">
+            <v>127.4436019763703</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F159FE-D3DB-49C1-B473-4E87221778F1}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +3734,10 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,24 +3762,33 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>6.8255138645384933E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>8008.8288756840811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>7.7261312811500088E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>8742.6846047128929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,8 +3813,11 @@
       <c r="H4">
         <v>3.1638940028423108E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>9164.6600056323514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -521,8 +3842,11 @@
       <c r="H5">
         <v>3.172649679245837E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>9147.6925583873744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -547,8 +3871,11 @@
       <c r="H6">
         <v>3.1798254499838231E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>8564.71974292288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -573,8 +3900,11 @@
       <c r="H7">
         <v>3.1853083930580783E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>7486.8180880061454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -599,8 +3929,11 @@
       <c r="H8">
         <v>3.1915344508145239E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>6575.1644328230177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -625,8 +3958,11 @@
       <c r="H9">
         <v>3.1994575726881448E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>5858.0408172455891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -651,8 +3987,11 @@
       <c r="H10">
         <v>3.2073756223275407E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>5164.4924487784283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -677,8 +4016,11 @@
       <c r="H11">
         <v>3.2175883105969326E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>4572.0806517224082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -703,8 +4045,11 @@
       <c r="H12">
         <v>3.2268552085044803E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>4015.5528658250028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -729,8 +4074,11 @@
       <c r="H13">
         <v>3.2403074372973809E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>3625.9566037551931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -755,8 +4103,11 @@
       <c r="H14">
         <v>3.2542166068458681E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>3233.9794614479388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -781,8 +4132,11 @@
       <c r="H15">
         <v>3.2688829533208445E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>2842.5473288642497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -807,8 +4161,11 @@
       <c r="H16">
         <v>3.2850965740445506E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>2519.1055927008565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -833,8 +4190,11 @@
       <c r="H17">
         <v>3.3049731810510526E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>2255.6667674224705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -859,8 +4219,11 @@
       <c r="H18">
         <v>3.3260825927718674E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1991.4789100179607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -885,8 +4248,11 @@
       <c r="H19">
         <v>3.3506370488278925E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1788.0575585603694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -911,8 +4277,11 @@
       <c r="H20">
         <v>3.37747215094105E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1598.219919308011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -937,8 +4306,11 @@
       <c r="H21">
         <v>3.4072111150403039E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1428.3570034138461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -963,8 +4335,11 @@
       <c r="H22">
         <v>3.4410620207235412E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1281.6432673763609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -989,8 +4364,11 @@
       <c r="H23">
         <v>3.4774590283563854E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1150.2309365013928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1015,8 +4393,11 @@
       <c r="H24">
         <v>3.5190457579726289E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1036.8449867654324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1041,8 +4422,11 @@
       <c r="H25">
         <v>3.5643079018611128E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>935.01745211854211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1067,8 +4451,11 @@
       <c r="H26">
         <v>3.613807428210486E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>844.51410355912958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1093,8 +4480,11 @@
       <c r="H27">
         <v>3.6693607469282095E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>768.13274984721977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1119,8 +4509,11 @@
       <c r="H28">
         <v>3.7280497920315035E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>697.41695473571042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1145,8 +4538,11 @@
       <c r="H29">
         <v>3.7929376057424039E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>636.00248197146254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1171,8 +4567,11 @@
       <c r="H30">
         <v>3.863409323569035E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>582.64965391211683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1197,8 +4596,11 @@
       <c r="H31">
         <v>3.9400174444995772E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>536.65898507927363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1223,8 +4625,11 @@
       <c r="H32">
         <v>4.0213121845977175E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>495.18418242735919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1249,8 +4654,11 @@
       <c r="H33">
         <v>4.1100950291282239E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>459.88838470915192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1275,8 +4683,11 @@
       <c r="H34">
         <v>4.2024735059303459E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>428.18839526949353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1301,8 +4712,11 @@
       <c r="H35">
         <v>4.3001334828431145E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>400.67418496284398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1327,8 +4741,11 @@
       <c r="H36">
         <v>4.4022120555195998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>376.52244851828567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1353,8 +4770,11 @@
       <c r="H37">
         <v>4.507864845339582E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>355.61324336841074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1379,8 +4799,11 @@
       <c r="H38">
         <v>4.6159306521780692E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>337.2023263962804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1405,8 +4828,11 @@
       <c r="H39">
         <v>4.7259174308915408E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>321.34085093740805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1431,8 +4857,11 @@
       <c r="H40">
         <v>4.8369747131501495E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>308.11025869671431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1457,8 +4886,11 @@
       <c r="H41">
         <v>4.9482578134684922E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>296.69708227210117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1483,8 +4915,11 @@
       <c r="H42">
         <v>5.0542241630134259E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>286.59730514349855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1509,8 +4944,11 @@
       <c r="H43">
         <v>5.156732129631806E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>278.30292352830912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1535,8 +4973,11 @@
       <c r="H44">
         <v>5.2541022081457535E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>271.42585498869613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1561,8 +5002,11 @@
       <c r="H45">
         <v>5.3401728359302097E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>265.4902799957876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1587,8 +5031,11 @@
       <c r="H46">
         <v>5.4191241828723258E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>261.12752452922115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1613,8 +5060,11 @@
       <c r="H47">
         <v>5.4839720806272342E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>257.4896609489133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1639,8 +5089,11 @@
       <c r="H48">
         <v>5.5348167988609399E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>254.7759734406489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1665,8 +5118,11 @@
       <c r="H49">
         <v>5.5728445323809439E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>253.03009163603519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1691,8 +5147,11 @@
       <c r="H50">
         <v>5.5932179047307601E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>252.17491029993707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1717,8 +5176,11 @@
       <c r="H51">
         <v>5.5953172014173019E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>251.89787083957856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1743,8 +5205,11 @@
       <c r="H52">
         <v>5.5820266211502247E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>252.49025065092502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1769,8 +5234,11 @@
       <c r="H53">
         <v>5.5523966961077399E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>253.95045585685398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1795,8 +5263,11 @@
       <c r="H54">
         <v>5.5070237208055997E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>256.2233399593249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1821,8 +5292,11 @@
       <c r="H55">
         <v>5.4483166229845517E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>259.49151839401719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1847,8 +5321,11 @@
       <c r="H56">
         <v>5.3792807547987688E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>264.03048111670125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1873,8 +5350,11 @@
       <c r="H57">
         <v>5.2973330108128595E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>269.29350903128625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1899,8 +5379,11 @@
       <c r="H58">
         <v>5.2030019890586449E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>275.46707946798216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1925,8 +5408,11 @@
       <c r="H59">
         <v>5.1038214645958029E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>282.84472378577107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1951,8 +5437,11 @@
       <c r="H60">
         <v>4.9988261321837424E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>291.65039459072074</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1977,8 +5466,11 @@
       <c r="H61">
         <v>4.8935192641653996E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>302.37043231454214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2003,8 +5495,11 @@
       <c r="H62">
         <v>4.7853550739534068E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>314.60220933435261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2029,8 +5524,11 @@
       <c r="H63">
         <v>4.6775491649859023E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>328.74296025338435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2055,8 +5553,11 @@
       <c r="H64">
         <v>4.5707021010392423E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>344.79657116908072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2081,8 +5582,11 @@
       <c r="H65">
         <v>4.4661499673894607E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>362.64223794324749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2107,8 +5611,11 @@
       <c r="H66">
         <v>4.3673021797930041E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>383.89190299528838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2133,8 +5640,11 @@
       <c r="H67">
         <v>4.2735568975408193E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>407.6189205404541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2159,8 +5669,11 @@
       <c r="H68">
         <v>4.1844354939402736E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>434.09310445041314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2185,8 +5698,11 @@
       <c r="H69">
         <v>4.100483794732579E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>463.43798929280342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2211,8 +5727,11 @@
       <c r="H70">
         <v>4.0222323235744643E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>495.29929706331194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2237,8 +5756,11 @@
       <c r="H71">
         <v>3.9517374664879645E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>530.96386245608153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2263,8 +5785,11 @@
       <c r="H72">
         <v>3.8870370456542361E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>569.23663641620044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2289,8 +5814,11 @@
       <c r="H73">
         <v>3.8286137855702007E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>610.16695680634245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2315,8 +5843,11 @@
       <c r="H74">
         <v>3.7760484203518019E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>652.34516873224379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2341,8 +5872,11 @@
       <c r="H75">
         <v>3.7300124535386336E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>696.1647890733085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2367,8 +5901,11 @@
       <c r="H76">
         <v>3.690062498830101E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>738.48163659214026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2393,8 +5930,11 @@
       <c r="H77">
         <v>3.6573611457344203E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>781.50646162823728</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2419,8 +5959,11 @@
       <c r="H78">
         <v>3.630652492049035E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>820.98266125330485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2445,8 +5988,11 @@
       <c r="H79">
         <v>3.6090816925653905E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>854.20517956651713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2471,8 +6017,11 @@
       <c r="H80">
         <v>3.5935368436562865E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>879.47172618643663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2497,8 +6046,11 @@
       <c r="H81">
         <v>3.5834997235521283E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>896.42702889444911</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2523,8 +6075,11 @@
       <c r="H82">
         <v>3.5808495934184552E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>905.10399704058295</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2549,8 +6104,11 @@
       <c r="H83">
         <v>3.5825517786805337E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>899.49421131434565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2575,8 +6133,11 @@
       <c r="H84">
         <v>3.5902377421139629E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>882.09335832163345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2601,8 +6162,11 @@
       <c r="H85">
         <v>3.6053308632709287E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>857.55788564424563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2627,8 +6191,11 @@
       <c r="H86">
         <v>3.626431124495709E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>823.35879510341863</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2653,8 +6220,11 @@
       <c r="H87">
         <v>3.6549878048552871E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>783.47096631355862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2679,8 +6249,11 @@
       <c r="H88">
         <v>3.6903014149597041E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>739.24858856370031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2705,8 +6278,11 @@
       <c r="H89">
         <v>3.7338993413717027E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>692.91711079876677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2731,8 +6307,11 @@
       <c r="H90">
         <v>3.7851783286287605E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>644.83123564958692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2757,8 +6336,11 @@
       <c r="H91">
         <v>3.8445384917569374E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>596.5775855938399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2783,8 +6365,11 @@
       <c r="H92">
         <v>3.9136778678390695E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>550.28800337928078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2809,8 +6394,11 @@
       <c r="H93">
         <v>3.9914117459286608E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>505.79422672258551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2835,8 +6423,11 @@
       <c r="H94">
         <v>4.0720113437983624E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>461.73161586167834</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2861,8 +6452,11 @@
       <c r="H95">
         <v>4.1482952512728447E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>416.20710506106155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2887,8 +6481,11 @@
       <c r="H96">
         <v>4.2330929848991325E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>376.0340442081943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2913,8 +6510,11 @@
       <c r="H97">
         <v>4.3362099632593215E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>342.76192974200893</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2939,8 +6539,11 @@
       <c r="H98">
         <v>4.4529345769014544E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>314.11301903339489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2965,8 +6568,11 @@
       <c r="H99">
         <v>4.5698603199124034E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>286.90596800614372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2991,8 +6597,11 @@
       <c r="H100">
         <v>4.6544700224601859E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>257.78791973217602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3017,14 +6626,21 @@
       <c r="H101">
         <v>4.5648174719041118E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>210.995388944257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
+      <c r="I102">
+        <v>127.4436019763703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
